--- a/analysis/report/gens_nm_panell.xlsx
+++ b/analysis/report/gens_nm_panell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinwijngaard/Dropbox/Master UOC/TFM/Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinwijngaard/Dropbox/Master_UOC/TFM/TFM_code/analysis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F0E725-162E-DF4B-9F9C-DA678CDE199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C51012B-FE17-744A-B70C-92FE600D1D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mama" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>ATM</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>MITF</t>
-  </si>
-  <si>
-    <t>CDKN2A</t>
   </si>
   <si>
     <t>NM_000143</t>
@@ -1016,7 +1013,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1094,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G14:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1105,7 @@
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1121,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1129,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1185,7 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1225,7 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1233,7 @@
         <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1260,7 +1257,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1268,7 +1265,7 @@
         <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,7 +1281,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1292,7 +1289,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1300,7 +1297,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1308,7 +1305,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1372,7 +1369,7 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1396,7 +1393,7 @@
         <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1408,15 +1405,20 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>86</v>
+      <c r="A39" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/report/gens_nm_panell.xlsx
+++ b/analysis/report/gens_nm_panell.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinwijngaard/Dropbox/Master_UOC/TFM/TFM_code/analysis/report/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C51012B-FE17-744A-B70C-92FE600D1D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mama" sheetId="1" r:id="rId1"/>
     <sheet name="colon" sheetId="2" r:id="rId2"/>
     <sheet name="melanoma" sheetId="3" r:id="rId3"/>
     <sheet name="endocri" sheetId="4" r:id="rId4"/>
+    <sheet name="salsa josep" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
   <si>
     <t>ATM</t>
   </si>
@@ -323,13 +318,109 @@
   </si>
   <si>
     <t>NM_000248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_000465 </t>
+  </si>
+  <si>
+    <t>BARD1</t>
+  </si>
+  <si>
+    <t>P198</t>
+  </si>
+  <si>
+    <t>P256</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>P429 </t>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P225</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>P417</t>
+  </si>
+  <si>
+    <t>P081 / 0982 / P122</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>P481</t>
+  </si>
+  <si>
+    <t>P244</t>
+  </si>
+  <si>
+    <t>P177</t>
+  </si>
+  <si>
+    <t>P466</t>
+  </si>
+  <si>
+    <t>P482</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P072</t>
+  </si>
+  <si>
+    <t>P057 / P260</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>P186</t>
+  </si>
+  <si>
+    <t>P260</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>P419</t>
+  </si>
+  <si>
+    <t>P090 / P045</t>
+  </si>
+  <si>
+    <t>P017 / P244</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,7 +511,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,27 +585,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,24 +619,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -739,16 +794,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,110 +811,119 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -867,7 +931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -875,7 +939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -883,7 +947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -891,7 +955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -915,7 +979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -923,7 +987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -931,7 +995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -939,7 +1003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -947,7 +1011,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -955,7 +1019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -963,7 +1027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -971,7 +1035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -979,7 +1043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -987,7 +1051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -995,7 +1059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1009,16 +1073,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1026,7 +1090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,336 +1152,783 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C40">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
+      <c r="C40" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/report/gens_nm_panell.xlsx
+++ b/analysis/report/gens_nm_panell.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinwijngaard/Dropbox/Master_UOC/TFM/TFM_code/analysis/report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0095C423-9855-9747-B939-B91915A007BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="15600" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mama" sheetId="1" r:id="rId1"/>
     <sheet name="colon" sheetId="2" r:id="rId2"/>
     <sheet name="melanoma" sheetId="3" r:id="rId3"/>
-    <sheet name="endocri" sheetId="4" r:id="rId4"/>
-    <sheet name="salsa josep" sheetId="5" r:id="rId5"/>
+    <sheet name="all" sheetId="6" r:id="rId4"/>
+    <sheet name="endocri" sheetId="4" r:id="rId5"/>
+    <sheet name="salsa josep" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">endocri!$A$1:$K$62</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="136">
   <si>
     <t>ATM</t>
   </si>
@@ -414,13 +424,25 @@
   </si>
   <si>
     <t>P017 / P244</t>
+  </si>
+  <si>
+    <t>PTCH1</t>
+  </si>
+  <si>
+    <t>NM_000264</t>
+  </si>
+  <si>
+    <t>SUFU</t>
+  </si>
+  <si>
+    <t>NM_016169</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,7 +533,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,9 +607,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,6 +659,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -794,16 +852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -819,7 +877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -827,7 +885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -835,7 +893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,7 +901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,7 +909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,7 +917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,7 +925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,7 +933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,7 +941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,7 +949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,12 +957,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -914,16 +980,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A18"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -931,7 +997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -939,7 +1005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -947,7 +1013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -955,7 +1021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,7 +1029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -971,7 +1037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,7 +1045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -987,7 +1053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1061,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1073,16 +1139,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="B10" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1090,7 +1156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1106,7 +1172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1138,12 +1204,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1152,19 +1234,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F967EDB-B16A-214B-B4F3-CFD1C74329DB}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1172,329 +1251,767 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B52" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C40">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B81">
+    <sortCondition ref="A1:A81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C40">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +2022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +2033,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +2044,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1538,7 +2055,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1549,7 +2066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1560,7 +2077,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -1571,7 +2088,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -1582,7 +2099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>83</v>
       </c>
@@ -1593,7 +2110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +2121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1615,7 +2132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -1626,7 +2143,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1637,7 +2154,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +2165,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -1659,7 +2176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -1670,7 +2187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1681,7 +2198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
@@ -1692,7 +2209,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1703,7 +2220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +2231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +2242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>78</v>
       </c>
@@ -1736,7 +2253,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +2264,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
@@ -1758,7 +2275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +2286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +2297,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1791,7 +2308,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
@@ -1802,7 +2319,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -1813,7 +2330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +2341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -1835,7 +2352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +2363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
@@ -1857,7 +2374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -1868,7 +2385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +2396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -1887,7 +2404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +2415,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -1909,7 +2426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1920,7 +2437,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>30</v>
       </c>
